--- a/results/mp/logistic/corona/confidence/168/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,18 +40,21 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
@@ -79,79 +82,82 @@
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>support</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>friends</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
+    <t>share</t>
   </si>
   <si>
     <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>alert</t>
@@ -524,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7328767123287672</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6896551724137931</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4">
         <v>0.9322033898305084</v>
@@ -693,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5882352941176471</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -764,7 +770,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>0.8846153846153846</v>
@@ -793,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4021164021164021</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C7">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3275193798449613</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="D8">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>347</v>
+        <v>112</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8511749347258486</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L8">
-        <v>326</v>
+        <v>89</v>
       </c>
       <c r="M8">
-        <v>326</v>
+        <v>89</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1879194630872483</v>
+        <v>0.3468992248062016</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.839622641509434</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L9">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="M9">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,21 +941,45 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.1610738255033557</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>125</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10">
-        <v>0.8125</v>
+        <v>0.79375</v>
       </c>
       <c r="L10">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="M10">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -961,21 +991,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -987,21 +1017,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7878787878787878</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1013,21 +1043,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.7816901408450704</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1039,21 +1069,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7804878048780488</v>
+        <v>0.7734375</v>
       </c>
       <c r="L14">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="M14">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1065,21 +1095,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1096,16 +1126,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7758620689655172</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1117,21 +1147,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.775</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L17">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="M17">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1143,21 +1173,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1169,21 +1199,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1195,12 +1225,12 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K20">
         <v>0.7037037037037037</v>
@@ -1226,16 +1256,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6595744680851063</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1247,21 +1277,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6571428571428571</v>
+        <v>0.66</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1273,12 +1303,12 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K23">
         <v>0.6507936507936508</v>
@@ -1304,16 +1334,16 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.65</v>
+        <v>0.6147058823529412</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1325,21 +1355,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.64</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1351,21 +1381,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.6046511627906976</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1377,21 +1407,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5852941176470589</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1403,21 +1433,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5690376569037657</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L28">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1429,21 +1459,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>103</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5638297872340425</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L29">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1455,21 +1485,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5627118644067797</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L30">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="M30">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1481,21 +1511,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>129</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5384615384615384</v>
+        <v>0.5439330543933054</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1507,21 +1537,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1533,21 +1563,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4523809523809524</v>
+        <v>0.5220338983050847</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1559,21 +1589,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.4044943820224719</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1585,21 +1615,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.3725490196078431</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1611,21 +1641,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.3013698630136986</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1637,21 +1667,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.2564102564102564</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1663,7 +1693,33 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>58</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="L38">
+        <v>22</v>
+      </c>
+      <c r="M38">
+        <v>22</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
